--- a/biology/Neurosciences/Cornelia_Bargmann/Cornelia_Bargmann.xlsx
+++ b/biology/Neurosciences/Cornelia_Bargmann/Cornelia_Bargmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornelia Isabella "Cori" Bargmann, née en 1961 , est une neurobiologiste américaine[1]. 
-Elle est professeure et directrice de recherche à l'Université Rockefeller[2] et au Howard Hughes Medical Institute[3]. Elle est connue pour ses recherches sur le système olfactif du ver Caenorhabditis elegans. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornelia Isabella "Cori" Bargmann, née en 1961 , est une neurobiologiste américaine. 
+Elle est professeure et directrice de recherche à l'Université Rockefeller et au Howard Hughes Medical Institute. Elle est connue pour ses recherches sur le système olfactif du ver Caenorhabditis elegans. 
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,22 +554,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix et récompenses
-1997 : W. Alden Spencer Award (en)
-2009 : prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine[4]
-2012 : Prix Kavli en neurosciences avec Winfried Denk et Ann Graybiel pour avoir élucidé les mécanismes neuronaux à la base de la perception et des prises de décision[5].
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1997 : W. Alden Spencer Award (en)
+2009 : prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine
+2012 : Prix Kavli en neurosciences avec Winfried Denk et Ann Graybiel pour avoir élucidé les mécanismes neuronaux à la base de la perception et des prises de décision.
 2012 : Hodgkin-Huxley-Katz Prize Lecture
-2013 : Breakthrough Prize in Life Sciences[6]
-2015 : Médaille Benjamin-Franklin
-Sociétés savantes
-2003 : Membre de l'Académie nationale des sciences
+2013 : Breakthrough Prize in Life Sciences
+2015 : Médaille Benjamin-Franklin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cornelia_Bargmann</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Bargmann</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2003 : Membre de l'Académie nationale des sciences
 Membre de l'Académie américaine des arts et des sciences (AAAS)
-Membre de l'Organisation européenne de biologie moléculaire (EMBO)
-Honneurs
-Elle a obtenu plusieurs doctorats honoris causa :
-2016 : Université Brown [7]
-2017 : Université Yale[8]
-2017 : Université d'Oxford[9]</t>
+Membre de l'Organisation européenne de biologie moléculaire (EMBO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cornelia_Bargmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Bargmann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle a obtenu plusieurs doctorats honoris causa :
+2016 : Université Brown 
+2017 : Université Yale
+2017 : Université d'Oxford</t>
         </is>
       </c>
     </row>
